--- a/tmpAsset/map/Map02.xlsx
+++ b/tmpAsset/map/Map02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\1213mr\work_SNAproj\tmpAsset\map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\mhoge\work_SNAproj\tmpAsset\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="3">
   <si>
     <t>&lt;/pallet&gt;</t>
     <phoneticPr fontId="1"/>
@@ -33,6 +33,9 @@
   <si>
     <t>Assets/Block_Shadow.gpmesh</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,30 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -109,6 +135,29 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -181,52 +230,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -272,896 +275,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
       <border>
@@ -1583,146 +696,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="9:33" x14ac:dyDescent="0.4">
-      <c r="I1">
-        <v>1</v>
-      </c>
-      <c r="AG1">
-        <v>1</v>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="9:33" x14ac:dyDescent="0.4">
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="9:33" x14ac:dyDescent="0.4">
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="9:33" x14ac:dyDescent="0.4">
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="9:33" x14ac:dyDescent="0.4">
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="9:33" x14ac:dyDescent="0.4">
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="9:33" x14ac:dyDescent="0.4">
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="AG7">
-        <v>1</v>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="9:33" x14ac:dyDescent="0.4">
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="AG8">
-        <v>1</v>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="9:33" x14ac:dyDescent="0.4">
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="9:33" x14ac:dyDescent="0.4">
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="AG10">
-        <v>1</v>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="9:33" x14ac:dyDescent="0.4">
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="AG11">
-        <v>1</v>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="9:33" x14ac:dyDescent="0.4">
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="AG12">
-        <v>1</v>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="9:33" x14ac:dyDescent="0.4">
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="AG13">
-        <v>1</v>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="9:33" x14ac:dyDescent="0.4">
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="AG14">
-        <v>1</v>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="9:33" x14ac:dyDescent="0.4">
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="AG15">
-        <v>1</v>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="9:33" x14ac:dyDescent="0.4">
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="AG16">
-        <v>1</v>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="AG17">
-        <v>1</v>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>2</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -1747,379 +860,379 @@
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="I18">
-        <v>1</v>
+      <c r="I18" t="s">
+        <v>2</v>
       </c>
       <c r="AD18">
         <v>2</v>
       </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18">
-        <v>1</v>
-      </c>
-      <c r="AI18">
-        <v>1</v>
-      </c>
-      <c r="AJ18">
-        <v>1</v>
-      </c>
-      <c r="AK18">
-        <v>1</v>
-      </c>
-      <c r="AL18">
-        <v>1</v>
-      </c>
-      <c r="AM18">
-        <v>1</v>
-      </c>
-      <c r="AN18">
-        <v>1</v>
+      <c r="AG18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="AD19">
-        <v>1</v>
-      </c>
-      <c r="AG19">
-        <v>1</v>
-      </c>
-      <c r="AH19">
-        <v>1</v>
-      </c>
-      <c r="AI19">
-        <v>1</v>
-      </c>
-      <c r="AJ19">
-        <v>1</v>
-      </c>
-      <c r="AK19">
-        <v>1</v>
-      </c>
-      <c r="AL19">
-        <v>1</v>
-      </c>
-      <c r="AM19">
-        <v>1</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="AC20">
-        <v>1</v>
-      </c>
-      <c r="AD20">
-        <v>1</v>
-      </c>
-      <c r="AG20">
-        <v>1</v>
-      </c>
-      <c r="AH20">
-        <v>1</v>
-      </c>
-      <c r="AI20">
-        <v>1</v>
-      </c>
-      <c r="AJ20">
-        <v>1</v>
-      </c>
-      <c r="AK20">
-        <v>1</v>
-      </c>
-      <c r="AL20">
-        <v>1</v>
-      </c>
-      <c r="AM20">
-        <v>1</v>
-      </c>
-      <c r="AN20">
-        <v>1</v>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="AG21">
-        <v>1</v>
-      </c>
-      <c r="AH21">
-        <v>1</v>
-      </c>
-      <c r="AI21">
-        <v>1</v>
-      </c>
-      <c r="AJ21">
-        <v>1</v>
-      </c>
-      <c r="AK21">
-        <v>1</v>
-      </c>
-      <c r="AL21">
-        <v>1</v>
-      </c>
-      <c r="AM21">
-        <v>1</v>
-      </c>
-      <c r="AN21">
-        <v>1</v>
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AA22">
-        <v>1</v>
-      </c>
-      <c r="AB22">
-        <v>1</v>
-      </c>
-      <c r="AC22">
-        <v>1</v>
-      </c>
-      <c r="AD22">
-        <v>1</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
-      <c r="AG22">
-        <v>1</v>
-      </c>
-      <c r="AH22">
-        <v>1</v>
-      </c>
-      <c r="AI22">
-        <v>1</v>
-      </c>
-      <c r="AJ22">
-        <v>1</v>
-      </c>
-      <c r="AK22">
-        <v>1</v>
-      </c>
-      <c r="AL22">
-        <v>1</v>
-      </c>
-      <c r="AM22">
-        <v>1</v>
-      </c>
-      <c r="AN22">
-        <v>1</v>
+      <c r="I22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" t="s">
+        <v>2</v>
+      </c>
+      <c r="W22" t="s">
+        <v>2</v>
+      </c>
+      <c r="X22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-      <c r="AA23">
-        <v>1</v>
-      </c>
-      <c r="AB23">
-        <v>1</v>
-      </c>
-      <c r="AC23">
-        <v>1</v>
-      </c>
-      <c r="AD23">
-        <v>1</v>
-      </c>
-      <c r="AE23">
-        <v>1</v>
-      </c>
-      <c r="AF23">
-        <v>1</v>
-      </c>
-      <c r="AG23">
-        <v>1</v>
-      </c>
-      <c r="AH23">
-        <v>1</v>
-      </c>
-      <c r="AI23">
-        <v>1</v>
-      </c>
-      <c r="AJ23">
-        <v>1</v>
-      </c>
-      <c r="AK23">
-        <v>1</v>
-      </c>
-      <c r="AL23">
-        <v>1</v>
-      </c>
-      <c r="AM23">
-        <v>1</v>
-      </c>
-      <c r="AN23">
-        <v>1</v>
+      <c r="I23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23" t="s">
+        <v>2</v>
+      </c>
+      <c r="W23" t="s">
+        <v>2</v>
+      </c>
+      <c r="X23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.4">
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-      <c r="Z24">
-        <v>1</v>
-      </c>
-      <c r="AA24">
-        <v>1</v>
-      </c>
-      <c r="AB24">
-        <v>1</v>
-      </c>
-      <c r="AC24">
-        <v>1</v>
-      </c>
-      <c r="AD24">
-        <v>1</v>
-      </c>
-      <c r="AE24">
-        <v>1</v>
-      </c>
-      <c r="AF24">
-        <v>1</v>
-      </c>
-      <c r="AG24">
-        <v>1</v>
-      </c>
-      <c r="AH24">
-        <v>1</v>
-      </c>
-      <c r="AI24">
-        <v>1</v>
-      </c>
-      <c r="AJ24">
-        <v>1</v>
-      </c>
-      <c r="AK24">
-        <v>1</v>
-      </c>
-      <c r="AL24">
-        <v>1</v>
-      </c>
-      <c r="AM24">
-        <v>1</v>
-      </c>
-      <c r="AN24">
-        <v>1</v>
+      <c r="I24" t="s">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" t="s">
+        <v>2</v>
+      </c>
+      <c r="W24" t="s">
+        <v>2</v>
+      </c>
+      <c r="X24" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>2</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2130,92 +1243,92 @@
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="Z25">
-        <v>1</v>
-      </c>
-      <c r="AA25">
-        <v>1</v>
-      </c>
-      <c r="AB25">
-        <v>1</v>
-      </c>
-      <c r="AC25">
-        <v>1</v>
-      </c>
-      <c r="AD25">
-        <v>1</v>
-      </c>
-      <c r="AE25">
-        <v>1</v>
-      </c>
-      <c r="AF25">
-        <v>1</v>
-      </c>
-      <c r="AG25">
-        <v>1</v>
-      </c>
-      <c r="AH25">
-        <v>1</v>
-      </c>
-      <c r="AI25">
-        <v>1</v>
-      </c>
-      <c r="AJ25">
-        <v>1</v>
-      </c>
-      <c r="AK25">
-        <v>1</v>
-      </c>
-      <c r="AL25">
-        <v>1</v>
-      </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
+      <c r="P25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" t="s">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s">
+        <v>2</v>
+      </c>
+      <c r="U25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" t="s">
+        <v>2</v>
+      </c>
+      <c r="W25" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
-      <formula>1</formula>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="b">
+      <formula>NOT(ISERROR(SEARCH("b",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2228,7 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -5303,29 +4416,29 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD2 A35:XFD1048576 U28:XFD34 AO3:XFD27">
-    <cfRule type="cellIs" dxfId="52" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:T34">
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:AN27">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tmpAsset/map/Map02.xlsx
+++ b/tmpAsset/map/Map02.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\mhoge\work_SNAproj\tmpAsset\map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felid\Desktop\SDL_Work\work\work_SNAproj\tmpAsset\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C29875-B663-4591-80AC-2494173798DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="6">
   <si>
     <t>&lt;/pallet&gt;</t>
     <phoneticPr fontId="1"/>
@@ -37,11 +38,23 @@
   <si>
     <t>b</t>
   </si>
+  <si>
+    <t>bo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,7 +105,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -163,7 +176,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
       <border>
@@ -225,6 +238,29 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -693,11 +729,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -819,21 +855,30 @@
         <v>2</v>
       </c>
       <c r="AG15" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="9:33" x14ac:dyDescent="0.4">
       <c r="I16" t="s">
         <v>2</v>
       </c>
+      <c r="AF16" t="s">
+        <v>3</v>
+      </c>
       <c r="AG16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.4">
       <c r="I17" t="s">
         <v>2</v>
       </c>
+      <c r="AE17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>4</v>
+      </c>
       <c r="AG17" t="s">
         <v>2</v>
       </c>
@@ -863,9 +908,6 @@
       <c r="I18" t="s">
         <v>2</v>
       </c>
-      <c r="AD18">
-        <v>2</v>
-      </c>
       <c r="AG18" t="s">
         <v>2</v>
       </c>
@@ -995,7 +1037,7 @@
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.4">
       <c r="I22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="s">
         <v>2</v>
@@ -1060,7 +1102,7 @@
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.4">
       <c r="I23" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="s">
         <v>2</v>
@@ -1127,11 +1169,11 @@
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="F24">
-        <v>2</v>
+      <c r="H24" t="s">
+        <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T24" t="s">
         <v>2</v>
@@ -1322,14 +1364,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="b">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="b">
       <formula>NOT(ISERROR(SEARCH("b",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>2</formula>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="bo">
+      <formula>NOT(ISERROR(SEARCH("bo",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="f">
+      <formula>NOT(ISERROR(SEARCH("f",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1338,7 +1383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN27"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -4416,29 +4461,29 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD2 A35:XFD1048576 U28:XFD34 AO3:XFD27">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:T34">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:AN27">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
